--- a/Module 06 - Understanding the entity and risk assessment procedures.xlsx
+++ b/Module 06 - Understanding the entity and risk assessment procedures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/AD/Bob's Class notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/AD/Bob's AD Class notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="506" documentId="13_ncr:1_{9FCCFE92-7256-48AB-99A7-35B45CB1F5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2DBF2DA-C599-4D1B-BCEE-FBF10804C131}"/>
+  <xr:revisionPtr revIDLastSave="514" documentId="13_ncr:1_{9FCCFE92-7256-48AB-99A7-35B45CB1F5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A977E02B-6F18-4FAB-BE50-74681BA5F026}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{53BDA047-C120-4138-8EFF-C0EBD566DE9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{53BDA047-C120-4138-8EFF-C0EBD566DE9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="499">
   <si>
     <t>Main</t>
   </si>
@@ -1559,6 +1559,12 @@
   </si>
   <si>
     <t>&lt;&lt;&lt;&lt;make sure to add chat about how we would adjust approach in response to identified risks</t>
+  </si>
+  <si>
+    <t>WSE6.4</t>
+  </si>
+  <si>
+    <t>WSE6.7</t>
   </si>
 </sst>
 </file>
@@ -2968,10 +2974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2596E0B2-CDC3-4C29-B7E8-6BBF063C40AE}">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2984,10 +2990,22 @@
         <v>407</v>
       </c>
     </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" location="'Module 6'!A1" display="Module 6" xr:uid="{D1F28167-7CB7-4AC7-8519-1DFF8AC072EA}"/>
     <hyperlink ref="C2" location="WSE6.2!A1" display="WSE6.2" xr:uid="{7BD4027D-00AD-4ECB-8F8B-7AAF337D53BB}"/>
+    <hyperlink ref="C3" location="WSE6.4!A1" display="WSE6.4" xr:uid="{E3856D91-8495-4DD4-A8D2-AF7CE0AF8DDE}"/>
+    <hyperlink ref="C4" location="WSE6.7!A1" display="WSE6.7" xr:uid="{1CB9FA46-5604-453B-A6CD-ECE9E41E706D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2998,8 +3016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C44E74-B6A3-4117-80B7-38BEC42B38CF}">
   <dimension ref="A1:H698"/>
   <sheetViews>
-    <sheetView topLeftCell="A578" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C611" sqref="C611"/>
+    <sheetView tabSelected="1" topLeftCell="A578" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4992,8 +5010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9A2D5B-7000-4773-B3A9-1E2B2D1AD473}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5632,8 +5650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96113093-7325-42A9-BC0C-2A0B672B51D2}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5897,8 +5915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A41D5F-D862-4734-8BA1-E000F0A579BB}">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
